--- a/Data/Estadisticos.xlsx
+++ b/Data/Estadisticos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Tesis_Puya\Tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Tesis_Puya\Puya_CV_2024\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F710A8-9E60-4584-9CB4-64824CC1D091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEE92D5-6182-4516-AAB7-BEDD47D7D8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1545" windowWidth="20730" windowHeight="11160" xr2:uid="{81830E79-EB4C-4FB7-AA24-8D633C84E316}"/>
+    <workbookView xWindow="-20610" yWindow="-2970" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{81830E79-EB4C-4FB7-AA24-8D633C84E316}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="P.goudotiana" sheetId="1" r:id="rId1"/>
+    <sheet name="P.nitida" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Sin</t>
   </si>
@@ -79,13 +80,40 @@
   </si>
   <si>
     <t>Kruskall</t>
+  </si>
+  <si>
+    <t>Nitida</t>
+  </si>
+  <si>
+    <t>Branchingf</t>
+  </si>
+  <si>
+    <t>Averdagedia</t>
+  </si>
+  <si>
+    <t>SurfaceArea</t>
+  </si>
+  <si>
+    <t>No Parametrico</t>
+  </si>
+  <si>
+    <t>Parametrico</t>
+  </si>
+  <si>
+    <t>Significativo</t>
+  </si>
+  <si>
+    <t>No signi</t>
+  </si>
+  <si>
+    <t>T-test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +132,14 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +149,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,16 +183,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF9302-3720-4874-BA3A-5D3900825DBB}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,4 +836,191 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A7639D-D5EC-41DC-89B4-DDB7E06B2905}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.7990000000000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>2.1829999999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>7.3370000000000005E-2</v>
+      </c>
+      <c r="E2">
+        <v>9.8330000000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.438E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.1704</v>
+      </c>
+      <c r="H2">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="I2">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="J2">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1988</v>
+      </c>
+      <c r="D3">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.1255</v>
+      </c>
+      <c r="G3">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.63319999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.73336999999999997</v>
+      </c>
+      <c r="J3">
+        <v>3.3760000000000001E-3</v>
+      </c>
+      <c r="K3">
+        <v>0.59719999999999995</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7">
+        <v>0.1024</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.687E-2</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9.2710000000000001E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.81579999999999997</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.75839999999999996</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.82179999999999997</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.42370000000000002</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.46939999999999998</v>
+      </c>
+      <c r="H5" s="4">
+        <v>7.6169999999999996E-3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>7.0559999999999998E-3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.45429999999999998</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.2031</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>